--- a/lidar-breakout/VoltageReg Options.xlsx
+++ b/lidar-breakout/VoltageReg Options.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akeen\Desktop\LidarLite(designreviewrev)\roboracing-electrical-034454d06d38f8882550d6a4bd9e308aac4ec9f3\lidar-breakout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akeen\Documents\GitHub\roboracing-electrical\lidar-breakout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC60CD1-0CA5-4278-9F04-237D0DB97A15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E93EFE5-24DE-404D-B99D-DD8E6187E23C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" xr2:uid="{FFB7241A-D2C8-4716-8481-DB126C08393C}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -457,7 +458,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
